--- a/Squads/D2/Kaiserslautern_Darmstadt_squad.xlsx
+++ b/Squads/D2/Kaiserslautern_Darmstadt_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="214">
   <si>
     <t>Rk</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Min</t>
   </si>
   <si>
-    <t>90s</t>
-  </si>
-  <si>
     <t>Gls</t>
   </si>
   <si>
     <t>Ast</t>
   </si>
   <si>
+    <t>GlspAst</t>
+  </si>
+  <si>
     <t>npG</t>
   </si>
   <si>
@@ -110,100 +110,151 @@
     <t>npxG p90</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>268</t>
+    <t>371</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>242</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>274</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>Aleksandar Vukotić</t>
+  </si>
+  <si>
+    <t>Erik Wekesser</t>
+  </si>
+  <si>
+    <t>Jan Elvedi</t>
   </si>
   <si>
     <t>Daniel Hanslik</t>
@@ -215,19 +266,64 @@
     <t>Filip Kaloč</t>
   </si>
   <si>
+    <t>Boris Tomiak</t>
+  </si>
+  <si>
     <t>Fabian Nürnberger</t>
   </si>
   <si>
-    <t>Aleksandar Vukotić</t>
+    <t>Jan Gyamerah</t>
+  </si>
+  <si>
+    <t>Marlon Ritter</t>
+  </si>
+  <si>
+    <t>Almamy Touré</t>
+  </si>
+  <si>
+    <t>Matthias Bader</t>
+  </si>
+  <si>
+    <t>Guille Bueno</t>
+  </si>
+  <si>
+    <t>Killian Corredor</t>
+  </si>
+  <si>
+    <t>Klaus Gjasula</t>
+  </si>
+  <si>
+    <t>Tobias Kempe</t>
+  </si>
+  <si>
+    <t>Kai Klefisch</t>
+  </si>
+  <si>
+    <t>Sergio López</t>
+  </si>
+  <si>
+    <t>Matej Maglica</t>
+  </si>
+  <si>
+    <t>Luca Marseiler</t>
+  </si>
+  <si>
+    <t>Andreas Müller</t>
   </si>
   <si>
     <t>Dickson Abiama</t>
   </si>
   <si>
-    <t>Jan Elvedi</t>
-  </si>
-  <si>
-    <t>Jan Gyamerah</t>
+    <t>Ragnar Ache</t>
+  </si>
+  <si>
+    <t>Mikas Haas</t>
+  </si>
+  <si>
+    <t>Florian Kleinhansl</t>
+  </si>
+  <si>
+    <t>Philipp Klement</t>
   </si>
   <si>
     <t>Julian Krahl</t>
@@ -242,7 +338,7 @@
     <t>Tobias Raschl</t>
   </si>
   <si>
-    <t>Marlon Ritter</t>
+    <t>Kenny Redondo</t>
   </si>
   <si>
     <t>Leon Robinson</t>
@@ -251,40 +347,22 @@
     <t>Richmond Tachie</t>
   </si>
   <si>
-    <t>Boris Tomiak</t>
-  </si>
-  <si>
-    <t>Erik Wekesser</t>
+    <t>Daisuke Yokota</t>
   </si>
   <si>
     <t>Jean Zimmer</t>
   </si>
   <si>
-    <t>Matthias Bader</t>
-  </si>
-  <si>
-    <t>Klaus Gjasula</t>
-  </si>
-  <si>
     <t>Fraser Hornby</t>
   </si>
   <si>
     <t>Othmane El Idrissi</t>
   </si>
   <si>
-    <t>Tobias Kempe</t>
-  </si>
-  <si>
-    <t>Kai Klefisch</t>
-  </si>
-  <si>
     <t>Fynn-Luca Lakenmacher</t>
   </si>
   <si>
-    <t>Sergio López</t>
-  </si>
-  <si>
-    <t>Luca Marseiler</t>
+    <t>Isac Lidberg</t>
   </si>
   <si>
     <t>Merveille Papela</t>
@@ -296,28 +374,52 @@
     <t>Marcel Schuhen</t>
   </si>
   <si>
+    <t>Filip Stojilković</t>
+  </si>
+  <si>
     <t>Oscar Vilhelmsson</t>
   </si>
   <si>
     <t>Paul Will</t>
   </si>
   <si>
+    <t>Christoph Zimmermann</t>
+  </si>
+  <si>
+    <t>rs SRB</t>
+  </si>
+  <si>
     <t>de GER</t>
   </si>
   <si>
+    <t>ch SUI</t>
+  </si>
+  <si>
     <t>cz CZE</t>
   </si>
   <si>
-    <t>rs SRB</t>
+    <t>bg BUL</t>
+  </si>
+  <si>
+    <t>ml MLI</t>
+  </si>
+  <si>
+    <t>es ESP</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>al ALB</t>
+  </si>
+  <si>
+    <t>hr CRO</t>
   </si>
   <si>
     <t>ng NGA</t>
   </si>
   <si>
-    <t>ch SUI</t>
-  </si>
-  <si>
-    <t>al ALB</t>
+    <t>jp JPN</t>
   </si>
   <si>
     <t>sct SCO</t>
@@ -326,133 +428,184 @@
     <t>ma MAR</t>
   </si>
   <si>
-    <t>es ESP</t>
-  </si>
-  <si>
     <t>se SWE</t>
   </si>
   <si>
+    <t>DF</t>
+  </si>
+  <si>
     <t>FW,MF</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>MF</t>
   </si>
   <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>DF,MF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
     <t>FW</t>
   </si>
   <si>
+    <t>FW,DF</t>
+  </si>
+  <si>
     <t>GK</t>
   </si>
   <si>
-    <t>DF,MF</t>
-  </si>
-  <si>
-    <t>DF,FW</t>
+    <t>Darmstadt</t>
   </si>
   <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>27-305</t>
-  </si>
-  <si>
-    <t>25-008</t>
-  </si>
-  <si>
-    <t>24-161</t>
-  </si>
-  <si>
-    <t>25-009</t>
-  </si>
-  <si>
-    <t>29-015</t>
-  </si>
-  <si>
-    <t>25-277</t>
-  </si>
-  <si>
-    <t>27-311</t>
-  </si>
-  <si>
-    <t>29-049</t>
-  </si>
-  <si>
-    <t>24-197</t>
-  </si>
-  <si>
-    <t>26-026</t>
-  </si>
-  <si>
-    <t>25-131</t>
-  </si>
-  <si>
-    <t>24-167</t>
-  </si>
-  <si>
-    <t>29-296</t>
-  </si>
-  <si>
-    <t>23-026</t>
-  </si>
-  <si>
-    <t>25-107</t>
-  </si>
-  <si>
-    <t>25-330</t>
-  </si>
-  <si>
-    <t>27-034</t>
-  </si>
-  <si>
-    <t>30-244</t>
-  </si>
-  <si>
-    <t>27-050</t>
-  </si>
-  <si>
-    <t>34-236</t>
-  </si>
-  <si>
-    <t>24-328</t>
-  </si>
-  <si>
-    <t>17-304</t>
-  </si>
-  <si>
-    <t>35-040</t>
-  </si>
-  <si>
-    <t>24-247</t>
-  </si>
-  <si>
-    <t>24-088</t>
-  </si>
-  <si>
-    <t>25-120</t>
-  </si>
-  <si>
-    <t>27-170</t>
-  </si>
-  <si>
-    <t>23-201</t>
-  </si>
-  <si>
-    <t>21-018</t>
-  </si>
-  <si>
-    <t>31-206</t>
-  </si>
-  <si>
-    <t>20-309</t>
-  </si>
-  <si>
-    <t>25-158</t>
+    <t>29-067</t>
+  </si>
+  <si>
+    <t>27-086</t>
+  </si>
+  <si>
+    <t>27-363</t>
+  </si>
+  <si>
+    <t>27-357</t>
+  </si>
+  <si>
+    <t>25-060</t>
+  </si>
+  <si>
+    <t>24-213</t>
+  </si>
+  <si>
+    <t>26-016</t>
+  </si>
+  <si>
+    <t>25-061</t>
+  </si>
+  <si>
+    <t>29-101</t>
+  </si>
+  <si>
+    <t>29-348</t>
+  </si>
+  <si>
+    <t>28-152</t>
+  </si>
+  <si>
+    <t>27-102</t>
+  </si>
+  <si>
+    <t>22-009</t>
+  </si>
+  <si>
+    <t>23-328</t>
+  </si>
+  <si>
+    <t>34-288</t>
+  </si>
+  <si>
+    <t>35-092</t>
+  </si>
+  <si>
+    <t>24-299</t>
+  </si>
+  <si>
+    <t>25-172</t>
+  </si>
+  <si>
+    <t>26-002</t>
+  </si>
+  <si>
+    <t>27-222</t>
+  </si>
+  <si>
+    <t>24-069</t>
+  </si>
+  <si>
+    <t>25-329</t>
+  </si>
+  <si>
+    <t>26-061</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>24-047</t>
+  </si>
+  <si>
+    <t>32-018</t>
+  </si>
+  <si>
+    <t>24-249</t>
+  </si>
+  <si>
+    <t>26-078</t>
+  </si>
+  <si>
+    <t>25-183</t>
+  </si>
+  <si>
+    <t>24-219</t>
+  </si>
+  <si>
+    <t>30-029</t>
+  </si>
+  <si>
+    <t>23-078</t>
+  </si>
+  <si>
+    <t>25-159</t>
+  </si>
+  <si>
+    <t>24-104</t>
+  </si>
+  <si>
+    <t>30-296</t>
+  </si>
+  <si>
+    <t>25-014</t>
+  </si>
+  <si>
+    <t>17-356</t>
+  </si>
+  <si>
+    <t>24-140</t>
+  </si>
+  <si>
+    <t>26-019</t>
+  </si>
+  <si>
+    <t>23-253</t>
+  </si>
+  <si>
+    <t>21-070</t>
+  </si>
+  <si>
+    <t>31-258</t>
+  </si>
+  <si>
+    <t>24-267</t>
+  </si>
+  <si>
+    <t>20-361</t>
+  </si>
+  <si>
+    <t>25-210</t>
+  </si>
+  <si>
+    <t>31-259</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1997</t>
   </si>
   <si>
     <t>1996</t>
@@ -464,31 +617,43 @@
     <t>2000</t>
   </si>
   <si>
-    <t>1995</t>
-  </si>
-  <si>
     <t>1998</t>
   </si>
   <si>
     <t>1994</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
     <t>1993</t>
   </si>
   <si>
-    <t>1989</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
     <t>2003</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -643,37 +808,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>85.0</v>
+        <v>371.0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>90.0</v>
+        <v>515.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>5.7</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -694,31 +859,31 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA2" t="e">
-        <v>#N/A</v>
+      <c r="U2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0</v>
@@ -735,8 +900,8 @@
       <c r="AF2" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG2" t="e">
-        <v>#N/A</v>
+      <c r="AG2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -744,37 +909,37 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>95.0</v>
+        <v>378.0</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K3" t="n">
-        <v>90.0</v>
+        <v>502.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -795,31 +960,31 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
       </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" t="e">
-        <v>#N/A</v>
+      <c r="U3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9.0</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0</v>
@@ -836,8 +1001,8 @@
       <c r="AF3" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG3" t="e">
-        <v>#N/A</v>
+      <c r="AG3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -845,83 +1010,83 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>124.0</v>
+        <v>73.0</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="AB4" t="n">
         <v>0.0</v>
       </c>
@@ -937,8 +1102,8 @@
       <c r="AF4" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG4" t="e">
-        <v>#N/A</v>
+      <c r="AG4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -946,49 +1111,49 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>194.0</v>
+        <v>116.0</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.0</v>
       </c>
-      <c r="K5" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.0</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
@@ -997,49 +1162,49 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0</v>
+        <v>0.39</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0</v>
+        <v>0.39</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1047,37 +1212,37 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>268.0</v>
+        <v>127.0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K6" t="n">
-        <v>90.0</v>
+        <v>540.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
@@ -1098,7 +1263,7 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1110,19 +1275,19 @@
         <v>0.1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" t="n">
         <v>0.0</v>
@@ -1140,7 +1305,7 @@
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -1148,82 +1313,82 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>162.0</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0</v>
+        <v>374.0</v>
       </c>
       <c r="L7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.4</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" t="e">
-        <v>#N/A</v>
+      <c r="Y7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9.0</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0</v>
@@ -1240,8 +1405,8 @@
       <c r="AF7" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG7" t="e">
-        <v>#N/A</v>
+      <c r="AG7" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="8">
@@ -1249,100 +1414,100 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>50.0</v>
+        <v>359.0</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>1.0</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" t="e">
-        <v>#N/A</v>
+      <c r="U8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" t="e">
-        <v>#N/A</v>
+        <v>0.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="9">
@@ -1350,82 +1515,82 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>81.0</v>
+        <v>262.0</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K9" t="n">
-        <v>20.0</v>
+        <v>405.0</v>
       </c>
       <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.2</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA9" t="e">
-        <v>#N/A</v>
+      <c r="X9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>24.0</v>
       </c>
       <c r="AB9" t="n">
         <v>0.0</v>
@@ -1442,8 +1607,8 @@
       <c r="AF9" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG9" t="e">
-        <v>#N/A</v>
+      <c r="AG9" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="10">
@@ -1451,82 +1616,82 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>148.0</v>
+        <v>109.0</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.0</v>
       </c>
-      <c r="K10" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T10" t="n">
         <v>0.0</v>
       </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" t="e">
-        <v>#N/A</v>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
@@ -1543,8 +1708,8 @@
       <c r="AF10" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG10" t="e">
-        <v>#N/A</v>
+      <c r="AG10" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
@@ -1552,37 +1717,37 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>169.0</v>
+        <v>307.0</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.0</v>
+        <v>441.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2</v>
+        <v>4.9</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
@@ -1603,31 +1768,31 @@
         <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" t="e">
-        <v>#N/A</v>
+      <c r="U11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>20.0</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0</v>
@@ -1644,8 +1809,8 @@
       <c r="AF11" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG11" t="e">
-        <v>#N/A</v>
+      <c r="AG11" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
@@ -1653,100 +1818,100 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>199.0</v>
+        <v>360.0</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="J12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" t="e">
-        <v>#N/A</v>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.05</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.05</v>
+        <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.05</v>
+        <v>0.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG12" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -1754,37 +1919,37 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>215.0</v>
+        <v>16.0</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.0</v>
+        <v>272.0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
@@ -1805,31 +1970,31 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
-      <c r="U13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" t="e">
-        <v>#N/A</v>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.0</v>
       </c>
       <c r="AB13" t="n">
         <v>0.0</v>
@@ -1846,8 +2011,8 @@
       <c r="AF13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG13" t="e">
-        <v>#N/A</v>
+      <c r="AG13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
@@ -1855,82 +2020,82 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>221.0</v>
+        <v>36.0</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J14" t="n">
         <v>1.0</v>
       </c>
       <c r="K14" t="n">
-        <v>86.0</v>
+        <v>135.0</v>
       </c>
       <c r="L14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.0</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" t="e">
-        <v>#N/A</v>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.0</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0</v>
@@ -1947,8 +2112,8 @@
       <c r="AF14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG14" t="e">
-        <v>#N/A</v>
+      <c r="AG14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
@@ -1956,37 +2121,37 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>222.0</v>
+        <v>53.0</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K15" t="n">
-        <v>4.0</v>
+        <v>343.0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
@@ -2007,31 +2172,31 @@
         <v>0.0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
-      <c r="U15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" t="e">
-        <v>#N/A</v>
+      <c r="U15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>24.0</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0</v>
@@ -2048,8 +2213,8 @@
       <c r="AF15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG15" t="e">
-        <v>#N/A</v>
+      <c r="AG15" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="16">
@@ -2057,82 +2222,82 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>254.0</v>
+        <v>98.0</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="J16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.0</v>
       </c>
-      <c r="K16" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T16" t="n">
         <v>0.0</v>
       </c>
-      <c r="U16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" t="e">
-        <v>#N/A</v>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0</v>
       </c>
       <c r="AB16" t="n">
         <v>0.0</v>
@@ -2149,8 +2314,8 @@
       <c r="AF16" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG16" t="e">
-        <v>#N/A</v>
+      <c r="AG16" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
@@ -2158,91 +2323,91 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>260.0</v>
+        <v>171.0</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.0</v>
       </c>
-      <c r="K17" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y17" t="n">
         <v>1.0</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Z17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>1.0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="AB17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE17" t="n">
         <v>0.0</v>
@@ -2250,8 +2415,8 @@
       <c r="AF17" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG17" t="e">
-        <v>#N/A</v>
+      <c r="AG17" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="18">
@@ -2259,47 +2424,47 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>272.0</v>
+        <v>178.0</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
         <v>1.0</v>
       </c>
-      <c r="K18" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>1.0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P18" t="n">
         <v>0.0</v>
       </c>
@@ -2310,49 +2475,49 @@
         <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
-      <c r="U18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" t="e">
-        <v>#N/A</v>
+      <c r="U18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>4.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0</v>
+        <v>0.18</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0</v>
+        <v>0.18</v>
       </c>
       <c r="AE18" t="n">
         <v>0.0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG18" t="e">
-        <v>#N/A</v>
+        <v>0.18</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="19">
@@ -2360,100 +2525,100 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>280.0</v>
+        <v>208.0</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.0</v>
       </c>
-      <c r="K19" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T19" t="n">
         <v>0.0</v>
       </c>
-      <c r="U19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
-        <v>#N/A</v>
+      <c r="U19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>0.53</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0</v>
+        <v>0.53</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0</v>
+        <v>0.53</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG19" t="e">
-        <v>#N/A</v>
+        <v>0.53</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
@@ -2461,82 +2626,82 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>12.0</v>
+        <v>214.0</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.0</v>
       </c>
-      <c r="K20" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X20" t="n">
         <v>0.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" t="n">
         <v>0.0</v>
@@ -2554,7 +2719,7 @@
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.03</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="21">
@@ -2562,82 +2727,82 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>72.0</v>
+        <v>220.0</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.0</v>
       </c>
-      <c r="K21" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W21" t="n">
         <v>0.8</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB21" t="n">
         <v>0.0</v>
@@ -2655,7 +2820,7 @@
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
@@ -2663,37 +2828,37 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>101.0</v>
+        <v>242.0</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K22" t="n">
-        <v>28.0</v>
+        <v>316.0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
@@ -2714,7 +2879,7 @@
         <v>0.0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -2726,19 +2891,19 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB22" t="n">
         <v>0.0</v>
@@ -2756,7 +2921,7 @@
         <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
@@ -2764,37 +2929,37 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>110.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
-        <v>8.0</v>
+        <v>127.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
@@ -2818,7 +2983,7 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -2827,19 +2992,19 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB23" t="n">
         <v>0.0</v>
@@ -2865,49 +3030,49 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>133.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K24" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M24" t="n">
         <v>4.0</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
@@ -2922,43 +3087,43 @@
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0</v>
+        <v>1.78</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0</v>
+        <v>1.78</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0</v>
+        <v>1.78</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.0</v>
+        <v>1.78</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="25">
@@ -2966,37 +3131,37 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>140.0</v>
+        <v>111.0</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>74.0</v>
+        <v>6.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -3023,22 +3188,22 @@
         <v>0.0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W25" t="n">
         <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA25" t="n">
         <v>0.0</v>
@@ -3059,7 +3224,7 @@
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -3067,37 +3232,37 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>153.0</v>
+        <v>179.0</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
@@ -3136,13 +3301,13 @@
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" t="n">
         <v>0.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.0</v>
@@ -3168,49 +3333,49 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>158.0</v>
+        <v>181.0</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="J27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.0</v>
       </c>
-      <c r="K27" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>1.0</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -3225,43 +3390,43 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y27" t="n">
         <v>2.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA27" t="n">
         <v>7.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0</v>
+        <v>0.56</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0</v>
+        <v>0.56</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0</v>
+        <v>1.11</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>0.56</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0</v>
+        <v>1.11</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.07</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="28">
@@ -3269,37 +3434,37 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>164.0</v>
+        <v>192.0</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>62.0</v>
+        <v>540.0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7</v>
+        <v>6.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -3335,16 +3500,16 @@
         <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -3362,7 +3527,7 @@
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -3370,37 +3535,37 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>204.0</v>
+        <v>225.0</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
-        <v>16.0</v>
+        <v>159.0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
@@ -3427,25 +3592,25 @@
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W29" t="n">
         <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z29" t="n">
         <v>1.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB29" t="n">
         <v>0.0</v>
@@ -3463,7 +3628,7 @@
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30">
@@ -3471,49 +3636,49 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>220.0</v>
+        <v>270.0</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K30" t="n">
-        <v>90.0</v>
+        <v>399.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
+        <v>4.4</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -3528,43 +3693,43 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0</v>
+        <v>0.45</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0</v>
+        <v>0.68</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0</v>
+        <v>1.13</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0</v>
+        <v>0.45</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0</v>
+        <v>1.13</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31">
@@ -3572,37 +3737,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>240.0</v>
+        <v>299.0</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="J31" t="n">
         <v>1.0</v>
       </c>
       <c r="K31" t="n">
-        <v>90.0</v>
+        <v>77.0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3635,19 +3800,19 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3665,7 +3830,7 @@
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
@@ -3673,82 +3838,82 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>266.0</v>
+        <v>300.0</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z32" t="n">
         <v>1.0</v>
       </c>
-      <c r="K32" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AA32" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.0</v>
@@ -3766,7 +3931,7 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="33">
@@ -3774,37 +3939,37 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>274.0</v>
+        <v>309.0</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>90.0</v>
+        <v>9.0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
@@ -3837,36 +4002,1450 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y33" t="n">
         <v>1.0</v>
       </c>
       <c r="Z33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>4.0</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="Z35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" t="n">
         <v>2.0</v>
       </c>
-      <c r="AB33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="K37" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG47" t="n">
         <v>0.0</v>
       </c>
     </row>
